--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43227,6 +43227,41 @@
         <v>1274400</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1641700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43262,6 +43262,41 @@
         <v>1641700</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>17419800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43297,6 +43297,41 @@
         <v>17419800</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>22910600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43332,6 +43332,41 @@
         <v>22910600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>3445200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43367,6 +43367,41 @@
         <v>3445200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>5279400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43402,6 +43402,41 @@
         <v>5279400</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>3658500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43437,6 +43437,41 @@
         <v>3658500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>4818500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43472,6 +43472,41 @@
         <v>4818500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>3980400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43507,6 +43507,41 @@
         <v>3980400</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>4616900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43542,6 +43542,41 @@
         <v>4616900</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>5522800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43577,6 +43577,41 @@
         <v>5522800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>5894200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43612,6 +43612,41 @@
         <v>5894200</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>3753000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43647,6 +43647,76 @@
         <v>3753000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>4216100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>6952600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43717,6 +43717,76 @@
         <v>6952600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1696900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2602500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43787,6 +43787,41 @@
         <v>2602500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1134100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43822,6 +43822,41 @@
         <v>1134100</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1444600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43857,6 +43857,41 @@
         <v>1444600</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1139000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43892,6 +43892,41 @@
         <v>1139000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>2657200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43927,6 +43927,76 @@
         <v>2657200</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>2097600</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>2146900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43997,6 +43997,41 @@
         <v>2146900</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>2377300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44032,6 +44032,41 @@
         <v>2377300</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>2575400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2250"/>
+  <dimension ref="A1:I2251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79382,6 +79382,41 @@
         <v>2575400</v>
       </c>
     </row>
+    <row r="2251">
+      <c r="A2251" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2251" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D2251" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E2251" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2251" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2251" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2251" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2251" t="n">
+        <v>1960200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2251"/>
+  <dimension ref="A1:I2252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79417,6 +79417,41 @@
         <v>1960200</v>
       </c>
     </row>
+    <row r="2252">
+      <c r="A2252" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2252" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D2252" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E2252" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2252" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2252" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2252" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2252" t="n">
+        <v>1968900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2252"/>
+  <dimension ref="A1:I2253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79452,6 +79452,41 @@
         <v>1968900</v>
       </c>
     </row>
+    <row r="2253">
+      <c r="A2253" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2253" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D2253" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E2253" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2253" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2253" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2253" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2253" t="n">
+        <v>1122500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2253"/>
+  <dimension ref="A1:I2254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79487,6 +79487,41 @@
         <v>1122500</v>
       </c>
     </row>
+    <row r="2254">
+      <c r="A2254" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2254" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D2254" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E2254" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2254" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2254" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2254" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2254" t="n">
+        <v>982800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2254"/>
+  <dimension ref="A1:I2255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79522,6 +79522,41 @@
         <v>982800</v>
       </c>
     </row>
+    <row r="2255">
+      <c r="A2255" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2255" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D2255" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E2255" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2255" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2255" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2255" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2255" t="n">
+        <v>2521400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2255"/>
+  <dimension ref="A1:I2256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79557,6 +79557,41 @@
         <v>2521400</v>
       </c>
     </row>
+    <row r="2256">
+      <c r="A2256" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2256" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D2256" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E2256" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2256" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2256" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2256" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2256" t="n">
+        <v>439100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2256"/>
+  <dimension ref="A1:I2257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79592,6 +79592,41 @@
         <v>439100</v>
       </c>
     </row>
+    <row r="2257">
+      <c r="A2257" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2257" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D2257" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E2257" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2257" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2257" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2257" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2257" t="n">
+        <v>590100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2257"/>
+  <dimension ref="A1:I2258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79627,6 +79627,41 @@
         <v>590100</v>
       </c>
     </row>
+    <row r="2258">
+      <c r="A2258" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2258" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D2258" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E2258" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2258" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2258" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2258" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2258" t="n">
+        <v>1679300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2258"/>
+  <dimension ref="A1:I2259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79662,6 +79662,41 @@
         <v>1679300</v>
       </c>
     </row>
+    <row r="2259">
+      <c r="A2259" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2259" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D2259" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E2259" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2259" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2259" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2259" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2259" t="n">
+        <v>2527300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2259"/>
+  <dimension ref="A1:I2260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79697,6 +79697,41 @@
         <v>2527300</v>
       </c>
     </row>
+    <row r="2260">
+      <c r="A2260" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2260" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D2260" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E2260" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2260" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2260" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H2260" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2260" t="n">
+        <v>3168500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2260"/>
+  <dimension ref="A1:I2261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79732,6 +79732,41 @@
         <v>3168500</v>
       </c>
     </row>
+    <row r="2261">
+      <c r="A2261" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D2261" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E2261" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2261" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2261" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2261" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2261" t="n">
+        <v>390400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2261"/>
+  <dimension ref="A1:I2262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79767,6 +79767,41 @@
         <v>390400</v>
       </c>
     </row>
+    <row r="2262">
+      <c r="A2262" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2262" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D2262" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E2262" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2262" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2262" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2262" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2262" t="n">
+        <v>3426000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2262"/>
+  <dimension ref="A1:I2263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79802,6 +79802,41 @@
         <v>3426000</v>
       </c>
     </row>
+    <row r="2263">
+      <c r="A2263" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D2263" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E2263" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F2263" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2263" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2263" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2263" t="n">
+        <v>5971900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2263"/>
+  <dimension ref="A1:I2264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79837,6 +79837,41 @@
         <v>5971900</v>
       </c>
     </row>
+    <row r="2264">
+      <c r="A2264" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2264" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D2264" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E2264" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2264" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G2264" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2264" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2264" t="n">
+        <v>1086300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0084.xlsx
+++ b/data/0084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2264"/>
+  <dimension ref="A1:I2265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79872,6 +79872,41 @@
         <v>1086300</v>
       </c>
     </row>
+    <row r="2265">
+      <c r="A2265" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2265" t="inlineStr">
+        <is>
+          <t>0084</t>
+        </is>
+      </c>
+      <c r="D2265" t="inlineStr">
+        <is>
+          <t>TECFAST</t>
+        </is>
+      </c>
+      <c r="E2265" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2265" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G2265" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2265" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2265" t="n">
+        <v>1081100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
